--- a/Test/2023/Resultat.xlsx
+++ b/Test/2023/Resultat.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -509,46 +509,46 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110</v>
+        <v>295</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Disposal of mud per ton</t>
+          <t>Possible additional suction, each hour</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Possible additional suction, each hour</t>
+          <t>Disposal of unpumpable per ton</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>339</v>
+        <v>110</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Disposal of unpumpable per ton</t>
+          <t>Disposal of mud per ton</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -556,12 +556,12 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -569,19 +569,45 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>350</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Possible additional suction, each hour</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>354</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Disposal of unpumpable per ton</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>709</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>vacuum truck + disposal</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
